--- a/mled/country_studies/zambia/mled_inputs/crops_cfs_ndays_months_ZMB.xlsx
+++ b/mled/country_studies/zambia/mled_inputs/crops_cfs_ndays_months_ZMB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiasahub-my.sharepoint.com/personal/falchetta_iiasa_ac_at/Documents/RE4AFAGRI_platform/mled/country_studies/zambia/mled_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="8_{600F3D7C-24F7-40B4-830F-F32363B5A6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA6FB2D7-2E1C-4CF2-BB09-D74640B1CEEB}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="8_{600F3D7C-24F7-40B4-830F-F32363B5A6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A705F26-A794-45F2-80B0-76A5C77FCAEC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79D111D9-D4D2-4234-833F-BE2A1BD1976E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
   <si>
     <t>crop</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>irr_type</t>
+  </si>
+  <si>
+    <t>drip</t>
+  </si>
+  <si>
+    <t>sprinkler</t>
+  </si>
+  <si>
+    <t>surface</t>
   </si>
 </sst>
 </file>
@@ -626,19 +638,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BD16A0-DCB6-4D6F-988C-92D7F511E7F2}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="13" max="13" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,14 +682,17 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -707,14 +723,17 @@
       <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2">
         <v>0.6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -745,14 +764,17 @@
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K3">
-        <v>0.6</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3">
+        <v>0.75</v>
+      </c>
+      <c r="M3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -783,14 +805,17 @@
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4">
         <v>0.6</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -821,14 +846,17 @@
       <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5">
         <v>0.6</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -859,14 +887,17 @@
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K6">
-        <v>0.85</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6">
+        <v>0.75</v>
+      </c>
+      <c r="M6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -897,14 +928,17 @@
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K7">
-        <v>0.85</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7">
+        <v>0.75</v>
+      </c>
+      <c r="M7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -935,14 +969,17 @@
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8">
-        <v>0.85</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8">
+        <v>0.75</v>
+      </c>
+      <c r="M8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -973,14 +1010,17 @@
       <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K9">
-        <v>0.85</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9">
+        <v>0.75</v>
+      </c>
+      <c r="M9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1011,14 +1051,17 @@
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.85</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10">
+        <v>0.9</v>
+      </c>
+      <c r="M10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1049,14 +1092,17 @@
       <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K11">
-        <v>0.85</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11">
+        <v>0.75</v>
+      </c>
+      <c r="M11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1087,14 +1133,17 @@
       <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K12">
-        <v>0.85</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12">
+        <v>0.75</v>
+      </c>
+      <c r="M12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1125,14 +1174,17 @@
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13">
         <v>0.6</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1163,14 +1215,17 @@
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K14">
-        <v>0.6</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14">
+        <v>0.75</v>
+      </c>
+      <c r="M14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1201,14 +1256,17 @@
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K15">
-        <v>0.85</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15">
+        <v>0.6</v>
+      </c>
+      <c r="M15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1239,14 +1297,17 @@
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16">
         <v>0.6</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1277,14 +1338,17 @@
       <c r="J17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17">
         <v>0.6</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1315,14 +1379,17 @@
       <c r="J18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18">
         <v>0.6</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1353,14 +1420,17 @@
       <c r="J19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19">
         <v>0.6</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1391,14 +1461,17 @@
       <c r="J20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K20">
-        <v>0.6</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="K20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20">
+        <v>0.75</v>
+      </c>
+      <c r="M20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1429,14 +1502,17 @@
       <c r="J21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K21">
-        <v>0.85</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21">
+        <v>0.75</v>
+      </c>
+      <c r="M21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1467,14 +1543,17 @@
       <c r="J22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22">
         <v>0.6</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1505,14 +1584,17 @@
       <c r="J23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K23">
-        <v>0.6</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23">
+        <v>0.75</v>
+      </c>
+      <c r="M23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1543,14 +1625,17 @@
       <c r="J24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24">
         <v>0.6</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1581,38 +1666,59 @@
       <c r="J25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="K25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25">
+        <v>0.9</v>
+      </c>
+      <c r="M25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="L26" t="s">
+      <c r="K26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26">
+        <v>0.6</v>
+      </c>
+      <c r="M26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="L27" t="s">
+      <c r="K27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27">
+        <v>0.6</v>
+      </c>
+      <c r="M27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="L28" t="s">
+      <c r="K28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28">
+        <v>0.6</v>
+      </c>
+      <c r="M28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1643,14 +1749,17 @@
       <c r="J29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K29">
-        <v>0.85</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="K29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29">
+        <v>0.6</v>
+      </c>
+      <c r="M29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1681,22 +1790,31 @@
       <c r="J30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K30">
-        <v>0.6</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="K30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30">
+        <v>0.75</v>
+      </c>
+      <c r="M30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="L31" t="s">
+      <c r="K31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31">
+        <v>0.6</v>
+      </c>
+      <c r="M31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1727,30 +1845,45 @@
       <c r="J32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32">
         <v>0.6</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="L33" t="s">
+      <c r="K33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33">
+        <v>0.6</v>
+      </c>
+      <c r="M33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="L34" t="s">
+      <c r="K34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34">
+        <v>0.6</v>
+      </c>
+      <c r="M34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1781,14 +1914,17 @@
       <c r="J35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K35">
-        <v>0.85</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="K35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35">
+        <v>0.75</v>
+      </c>
+      <c r="M35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1819,38 +1955,59 @@
       <c r="J36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K36">
-        <v>0.6</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="K36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36">
+        <v>0.75</v>
+      </c>
+      <c r="M36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37">
+        <v>0.6</v>
+      </c>
+      <c r="M37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38">
+        <v>0.75</v>
+      </c>
+      <c r="M38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="L39" t="s">
+      <c r="K39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L39">
+        <v>0.6</v>
+      </c>
+      <c r="M39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -1881,14 +2038,17 @@
       <c r="J40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K40">
-        <v>0.85</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="K40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40">
+        <v>0.75</v>
+      </c>
+      <c r="M40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -1919,14 +2079,17 @@
       <c r="J41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K41">
-        <v>0.6</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="K41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L41">
+        <v>0.9</v>
+      </c>
+      <c r="M41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -1957,14 +2120,17 @@
       <c r="J42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K42">
-        <v>0.6</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="K42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42">
+        <v>0.9</v>
+      </c>
+      <c r="M42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1995,10 +2161,13 @@
       <c r="J43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43">
         <v>0.6</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2008,12 +2177,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D840D748AD4F0642AEF7C31C01CA29D5" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="b4e84ba827db61c8ed3b5d95c61f70e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ab63d28-3f01-42fe-9389-79e270076006" xmlns:ns4="e2f19914-7c65-48de-b2e3-9bc5945a537d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efede3076d663e2818c93cf064af1f2d" ns3:_="" ns4:_="">
     <xsd:import namespace="1ab63d28-3f01-42fe-9389-79e270076006"/>
@@ -2222,6 +2385,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2232,23 +2401,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10AE660-8EC9-4B8E-8AF0-0AAABB0A4777}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ab63d28-3f01-42fe-9389-79e270076006"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e2f19914-7c65-48de-b2e3-9bc5945a537d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E6E067-ADCC-4FF0-A484-C1F51BDE087E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2267,6 +2419,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10AE660-8EC9-4B8E-8AF0-0AAABB0A4777}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ab63d28-3f01-42fe-9389-79e270076006"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e2f19914-7c65-48de-b2e3-9bc5945a537d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85052C84-6CD8-4337-9F02-BD02205688CE}">
   <ds:schemaRefs>
